--- a/preprocess/serie_peaje_filiales_2.xlsx
+++ b/preprocess/serie_peaje_filiales_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="224">
   <si>
     <t>AGENTE</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>Peaje TESA USD/MWh 062025</t>
+  </si>
+  <si>
+    <t>Peaje ENDE Trans. USD/MWh 072025</t>
+  </si>
+  <si>
+    <t>Peaje ENDE USD/MWh 072025</t>
+  </si>
+  <si>
+    <t>Peaje ISA USD/MWh 072025</t>
+  </si>
+  <si>
+    <t>Peaje TESA USD/MWh 072025</t>
   </si>
   <si>
     <t>Aguai (Autoproductor)</t>
@@ -1031,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DR88"/>
+  <dimension ref="A1:DV88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:122">
+    <row r="1" spans="1:126">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,13 +1416,25 @@
       <c r="DR1" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="2" spans="1:122">
+    <row r="2" spans="1:126">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1772,13 +1796,25 @@
       <c r="DR2">
         <v>0</v>
       </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:122">
+    <row r="3" spans="1:126">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2140,13 +2176,25 @@
       <c r="DR3">
         <v>0</v>
       </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:122">
+    <row r="4" spans="1:126">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C4">
         <v>6.18775</v>
@@ -2508,13 +2556,25 @@
       <c r="DR4">
         <v>0.22375</v>
       </c>
+      <c r="DS4">
+        <v>7.403375</v>
+      </c>
+      <c r="DT4">
+        <v>1.675875</v>
+      </c>
+      <c r="DU4">
+        <v>0.336625</v>
+      </c>
+      <c r="DV4">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="5" spans="1:122">
+    <row r="5" spans="1:126">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C5">
         <v>6.18775</v>
@@ -2876,13 +2936,25 @@
       <c r="DR5">
         <v>0.22375</v>
       </c>
+      <c r="DS5">
+        <v>7.403375</v>
+      </c>
+      <c r="DT5">
+        <v>1.675875</v>
+      </c>
+      <c r="DU5">
+        <v>0.336625</v>
+      </c>
+      <c r="DV5">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="6" spans="1:122">
+    <row r="6" spans="1:126">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C6">
         <v>6.18775</v>
@@ -3244,13 +3316,25 @@
       <c r="DR6">
         <v>0.22375</v>
       </c>
+      <c r="DS6">
+        <v>7.403375</v>
+      </c>
+      <c r="DT6">
+        <v>1.675875</v>
+      </c>
+      <c r="DU6">
+        <v>0.336625</v>
+      </c>
+      <c r="DV6">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="7" spans="1:122">
+    <row r="7" spans="1:126">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AI7">
         <v>6.805875</v>
@@ -3516,13 +3600,25 @@
       <c r="DR7">
         <v>0.4475</v>
       </c>
+      <c r="DS7">
+        <v>14.80675</v>
+      </c>
+      <c r="DT7">
+        <v>3.35175</v>
+      </c>
+      <c r="DU7">
+        <v>0.67325</v>
+      </c>
+      <c r="DV7">
+        <v>0.4535</v>
+      </c>
     </row>
-    <row r="8" spans="1:122">
+    <row r="8" spans="1:126">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C8">
         <v>6.18775</v>
@@ -3693,12 +3789,12 @@
         <v>0.2105</v>
       </c>
     </row>
-    <row r="9" spans="1:122">
+    <row r="9" spans="1:126">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C9">
         <v>6.18775</v>
@@ -3797,12 +3893,12 @@
         <v>0.223875</v>
       </c>
     </row>
-    <row r="10" spans="1:122">
+    <row r="10" spans="1:126">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C10">
         <v>6.18775</v>
@@ -4164,13 +4260,25 @@
       <c r="DR10">
         <v>0.22375</v>
       </c>
+      <c r="DS10">
+        <v>7.403375</v>
+      </c>
+      <c r="DT10">
+        <v>1.675875</v>
+      </c>
+      <c r="DU10">
+        <v>0.336625</v>
+      </c>
+      <c r="DV10">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="11" spans="1:122">
+    <row r="11" spans="1:126">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="CM11">
         <v>6.443</v>
@@ -4268,13 +4376,25 @@
       <c r="DR11">
         <v>0.22375</v>
       </c>
+      <c r="DS11">
+        <v>7.403375</v>
+      </c>
+      <c r="DT11">
+        <v>1.675875</v>
+      </c>
+      <c r="DU11">
+        <v>0.336625</v>
+      </c>
+      <c r="DV11">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="12" spans="1:122">
+    <row r="12" spans="1:126">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C12">
         <v>6.18775</v>
@@ -4636,13 +4756,25 @@
       <c r="DR12">
         <v>0.22375</v>
       </c>
+      <c r="DS12">
+        <v>7.403375</v>
+      </c>
+      <c r="DT12">
+        <v>1.675875</v>
+      </c>
+      <c r="DU12">
+        <v>0.336625</v>
+      </c>
+      <c r="DV12">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="13" spans="1:122">
+    <row r="13" spans="1:126">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C13">
         <v>6.18775</v>
@@ -5004,13 +5136,25 @@
       <c r="DR13">
         <v>0.22375</v>
       </c>
+      <c r="DS13">
+        <v>7.403375</v>
+      </c>
+      <c r="DT13">
+        <v>1.675875</v>
+      </c>
+      <c r="DU13">
+        <v>0.336625</v>
+      </c>
+      <c r="DV13">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="14" spans="1:122">
+    <row r="14" spans="1:126">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C14">
         <v>6.18775</v>
@@ -5372,13 +5516,25 @@
       <c r="DR14">
         <v>0.22375</v>
       </c>
+      <c r="DS14">
+        <v>7.403375</v>
+      </c>
+      <c r="DT14">
+        <v>1.675875</v>
+      </c>
+      <c r="DU14">
+        <v>0.336625</v>
+      </c>
+      <c r="DV14">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="15" spans="1:122">
+    <row r="15" spans="1:126">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C15">
         <v>6.18775</v>
@@ -5740,13 +5896,25 @@
       <c r="DR15">
         <v>0.22375</v>
       </c>
+      <c r="DS15">
+        <v>7.403375</v>
+      </c>
+      <c r="DT15">
+        <v>1.675875</v>
+      </c>
+      <c r="DU15">
+        <v>0.336625</v>
+      </c>
+      <c r="DV15">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="16" spans="1:122">
+    <row r="16" spans="1:126">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C16">
         <v>6.18775</v>
@@ -6108,13 +6276,25 @@
       <c r="DR16">
         <v>0.22375</v>
       </c>
+      <c r="DS16">
+        <v>7.403375</v>
+      </c>
+      <c r="DT16">
+        <v>1.675875</v>
+      </c>
+      <c r="DU16">
+        <v>0.336625</v>
+      </c>
+      <c r="DV16">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="17" spans="1:122">
+    <row r="17" spans="1:126">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C17">
         <v>6.18775</v>
@@ -6476,13 +6656,25 @@
       <c r="DR17">
         <v>0.22375</v>
       </c>
+      <c r="DS17">
+        <v>7.403375</v>
+      </c>
+      <c r="DT17">
+        <v>1.675875</v>
+      </c>
+      <c r="DU17">
+        <v>0.336625</v>
+      </c>
+      <c r="DV17">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="18" spans="1:122">
+    <row r="18" spans="1:126">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BG18">
         <v>6.32625</v>
@@ -6676,13 +6868,25 @@
       <c r="DR18">
         <v>0.22375</v>
       </c>
+      <c r="DS18">
+        <v>7.403375</v>
+      </c>
+      <c r="DT18">
+        <v>1.675875</v>
+      </c>
+      <c r="DU18">
+        <v>0.336625</v>
+      </c>
+      <c r="DV18">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="19" spans="1:122">
+    <row r="19" spans="1:126">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C19">
         <v>6.18775</v>
@@ -7044,13 +7248,25 @@
       <c r="DR19">
         <v>0.22375</v>
       </c>
+      <c r="DS19">
+        <v>7.403375</v>
+      </c>
+      <c r="DT19">
+        <v>1.675875</v>
+      </c>
+      <c r="DU19">
+        <v>0.336625</v>
+      </c>
+      <c r="DV19">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="20" spans="1:122">
+    <row r="20" spans="1:126">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C20">
         <v>6.18775</v>
@@ -7340,13 +7556,25 @@
       <c r="DR20">
         <v>0.22375</v>
       </c>
+      <c r="DS20">
+        <v>7.403375</v>
+      </c>
+      <c r="DT20">
+        <v>1.675875</v>
+      </c>
+      <c r="DU20">
+        <v>0.336625</v>
+      </c>
+      <c r="DV20">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="21" spans="1:122">
+    <row r="21" spans="1:126">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C21">
         <v>6.18775</v>
@@ -7708,13 +7936,25 @@
       <c r="DR21">
         <v>0.22375</v>
       </c>
+      <c r="DS21">
+        <v>7.403375</v>
+      </c>
+      <c r="DT21">
+        <v>1.675875</v>
+      </c>
+      <c r="DU21">
+        <v>0.336625</v>
+      </c>
+      <c r="DV21">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="22" spans="1:122">
+    <row r="22" spans="1:126">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C22">
         <v>6.18775</v>
@@ -8076,13 +8316,25 @@
       <c r="DR22">
         <v>0.22375</v>
       </c>
+      <c r="DS22">
+        <v>7.403375</v>
+      </c>
+      <c r="DT22">
+        <v>1.675875</v>
+      </c>
+      <c r="DU22">
+        <v>0.336625</v>
+      </c>
+      <c r="DV22">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="23" spans="1:122">
+    <row r="23" spans="1:126">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C23">
         <v>6.18775</v>
@@ -8444,13 +8696,25 @@
       <c r="DR23">
         <v>0.22375</v>
       </c>
+      <c r="DS23">
+        <v>7.403375</v>
+      </c>
+      <c r="DT23">
+        <v>1.675875</v>
+      </c>
+      <c r="DU23">
+        <v>0.336625</v>
+      </c>
+      <c r="DV23">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="24" spans="1:122">
+    <row r="24" spans="1:126">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C24">
         <v>6.18775</v>
@@ -8812,13 +9076,25 @@
       <c r="DR24">
         <v>0.22375</v>
       </c>
+      <c r="DS24">
+        <v>7.403375</v>
+      </c>
+      <c r="DT24">
+        <v>1.675875</v>
+      </c>
+      <c r="DU24">
+        <v>0.336625</v>
+      </c>
+      <c r="DV24">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="25" spans="1:122">
+    <row r="25" spans="1:126">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C25">
         <v>6.18775</v>
@@ -9180,13 +9456,25 @@
       <c r="DR25">
         <v>0.22375</v>
       </c>
+      <c r="DS25">
+        <v>7.403375</v>
+      </c>
+      <c r="DT25">
+        <v>1.675875</v>
+      </c>
+      <c r="DU25">
+        <v>0.336625</v>
+      </c>
+      <c r="DV25">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="26" spans="1:122">
+    <row r="26" spans="1:126">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BG26">
         <v>6.32625</v>
@@ -9380,13 +9668,25 @@
       <c r="DR26">
         <v>0.22375</v>
       </c>
+      <c r="DS26">
+        <v>7.403375</v>
+      </c>
+      <c r="DT26">
+        <v>1.675875</v>
+      </c>
+      <c r="DU26">
+        <v>0.336625</v>
+      </c>
+      <c r="DV26">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="27" spans="1:122">
+    <row r="27" spans="1:126">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C27">
         <v>6.18775</v>
@@ -9748,13 +10048,25 @@
       <c r="DR27">
         <v>0.22375</v>
       </c>
+      <c r="DS27">
+        <v>7.403375</v>
+      </c>
+      <c r="DT27">
+        <v>1.675875</v>
+      </c>
+      <c r="DU27">
+        <v>0.336625</v>
+      </c>
+      <c r="DV27">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="28" spans="1:122">
+    <row r="28" spans="1:126">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="CM28">
         <v>6.443</v>
@@ -9852,13 +10164,25 @@
       <c r="DR28">
         <v>0.22375</v>
       </c>
+      <c r="DS28">
+        <v>7.403375</v>
+      </c>
+      <c r="DT28">
+        <v>1.675875</v>
+      </c>
+      <c r="DU28">
+        <v>0.336625</v>
+      </c>
+      <c r="DV28">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="29" spans="1:122">
+    <row r="29" spans="1:126">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C29">
         <v>6.18775</v>
@@ -10220,13 +10544,25 @@
       <c r="DR29">
         <v>0.22375</v>
       </c>
+      <c r="DS29">
+        <v>7.403375</v>
+      </c>
+      <c r="DT29">
+        <v>1.675875</v>
+      </c>
+      <c r="DU29">
+        <v>0.336625</v>
+      </c>
+      <c r="DV29">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="30" spans="1:122">
+    <row r="30" spans="1:126">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C30">
         <v>6.18775</v>
@@ -10588,13 +10924,25 @@
       <c r="DR30">
         <v>0.22375</v>
       </c>
+      <c r="DS30">
+        <v>7.403375</v>
+      </c>
+      <c r="DT30">
+        <v>1.675875</v>
+      </c>
+      <c r="DU30">
+        <v>0.336625</v>
+      </c>
+      <c r="DV30">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="31" spans="1:122">
+    <row r="31" spans="1:126">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C31">
         <v>6.18775</v>
@@ -10956,13 +11304,25 @@
       <c r="DR31">
         <v>0.22375</v>
       </c>
+      <c r="DS31">
+        <v>7.403375</v>
+      </c>
+      <c r="DT31">
+        <v>1.675875</v>
+      </c>
+      <c r="DU31">
+        <v>0.336625</v>
+      </c>
+      <c r="DV31">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="32" spans="1:122">
+    <row r="32" spans="1:126">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C32">
         <v>6.18775</v>
@@ -11324,13 +11684,25 @@
       <c r="DR32">
         <v>0.22375</v>
       </c>
+      <c r="DS32">
+        <v>7.403375</v>
+      </c>
+      <c r="DT32">
+        <v>1.675875</v>
+      </c>
+      <c r="DU32">
+        <v>0.336625</v>
+      </c>
+      <c r="DV32">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="33" spans="1:122">
+    <row r="33" spans="1:126">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C33">
         <v>6.18775</v>
@@ -11692,13 +12064,25 @@
       <c r="DR33">
         <v>0.22375</v>
       </c>
+      <c r="DS33">
+        <v>7.403375</v>
+      </c>
+      <c r="DT33">
+        <v>1.675875</v>
+      </c>
+      <c r="DU33">
+        <v>0.336625</v>
+      </c>
+      <c r="DV33">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="34" spans="1:122">
+    <row r="34" spans="1:126">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C34">
         <v>6.18775</v>
@@ -12060,13 +12444,25 @@
       <c r="DR34">
         <v>0.22375</v>
       </c>
+      <c r="DS34">
+        <v>7.403375</v>
+      </c>
+      <c r="DT34">
+        <v>1.675875</v>
+      </c>
+      <c r="DU34">
+        <v>0.336625</v>
+      </c>
+      <c r="DV34">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="35" spans="1:122">
+    <row r="35" spans="1:126">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C35">
         <v>6.18775</v>
@@ -12428,13 +12824,25 @@
       <c r="DR35">
         <v>0.22375</v>
       </c>
+      <c r="DS35">
+        <v>7.403375</v>
+      </c>
+      <c r="DT35">
+        <v>1.675875</v>
+      </c>
+      <c r="DU35">
+        <v>0.336625</v>
+      </c>
+      <c r="DV35">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="36" spans="1:122">
+    <row r="36" spans="1:126">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C36">
         <v>6.18775</v>
@@ -12796,13 +13204,25 @@
       <c r="DR36">
         <v>0.22375</v>
       </c>
+      <c r="DS36">
+        <v>7.403375</v>
+      </c>
+      <c r="DT36">
+        <v>1.675875</v>
+      </c>
+      <c r="DU36">
+        <v>0.336625</v>
+      </c>
+      <c r="DV36">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="37" spans="1:122">
+    <row r="37" spans="1:126">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C37">
         <v>6.18775</v>
@@ -13164,13 +13584,25 @@
       <c r="DR37">
         <v>0.22375</v>
       </c>
+      <c r="DS37">
+        <v>7.403375</v>
+      </c>
+      <c r="DT37">
+        <v>1.675875</v>
+      </c>
+      <c r="DU37">
+        <v>0.336625</v>
+      </c>
+      <c r="DV37">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="38" spans="1:122">
+    <row r="38" spans="1:126">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C38">
         <v>6.18775</v>
@@ -13533,12 +13965,12 @@
         <v>0.22375</v>
       </c>
     </row>
-    <row r="39" spans="1:122">
+    <row r="39" spans="1:126">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C39">
         <v>6.18775</v>
@@ -13900,13 +14332,25 @@
       <c r="DR39">
         <v>0.22375</v>
       </c>
+      <c r="DS39">
+        <v>7.403375</v>
+      </c>
+      <c r="DT39">
+        <v>1.675875</v>
+      </c>
+      <c r="DU39">
+        <v>0.336625</v>
+      </c>
+      <c r="DV39">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="40" spans="1:122">
+    <row r="40" spans="1:126">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C40">
         <v>6.18775</v>
@@ -14268,13 +14712,25 @@
       <c r="DR40">
         <v>0.22375</v>
       </c>
+      <c r="DS40">
+        <v>7.403375</v>
+      </c>
+      <c r="DT40">
+        <v>1.675875</v>
+      </c>
+      <c r="DU40">
+        <v>0.336625</v>
+      </c>
+      <c r="DV40">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="41" spans="1:122">
+    <row r="41" spans="1:126">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C41">
         <v>6.18775</v>
@@ -14636,13 +15092,25 @@
       <c r="DR41">
         <v>0.22375</v>
       </c>
+      <c r="DS41">
+        <v>7.403375</v>
+      </c>
+      <c r="DT41">
+        <v>1.675875</v>
+      </c>
+      <c r="DU41">
+        <v>0.336625</v>
+      </c>
+      <c r="DV41">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="42" spans="1:122">
+    <row r="42" spans="1:126">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C42">
         <v>6.18775</v>
@@ -14957,12 +15425,12 @@
         <v>0.202125</v>
       </c>
     </row>
-    <row r="43" spans="1:122">
+    <row r="43" spans="1:126">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C43">
         <v>6.18775</v>
@@ -15324,13 +15792,25 @@
       <c r="DR43">
         <v>0.22375</v>
       </c>
+      <c r="DS43">
+        <v>7.403375</v>
+      </c>
+      <c r="DT43">
+        <v>1.675875</v>
+      </c>
+      <c r="DU43">
+        <v>0.336625</v>
+      </c>
+      <c r="DV43">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="44" spans="1:122">
+    <row r="44" spans="1:126">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BG44">
         <v>6.32625</v>
@@ -15524,13 +16004,25 @@
       <c r="DR44">
         <v>0.22375</v>
       </c>
+      <c r="DS44">
+        <v>7.403375</v>
+      </c>
+      <c r="DT44">
+        <v>1.675875</v>
+      </c>
+      <c r="DU44">
+        <v>0.336625</v>
+      </c>
+      <c r="DV44">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="45" spans="1:122">
+    <row r="45" spans="1:126">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C45">
         <v>6.18775</v>
@@ -15892,13 +16384,25 @@
       <c r="DR45">
         <v>0.22375</v>
       </c>
+      <c r="DS45">
+        <v>7.403375</v>
+      </c>
+      <c r="DT45">
+        <v>1.675875</v>
+      </c>
+      <c r="DU45">
+        <v>0.336625</v>
+      </c>
+      <c r="DV45">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="46" spans="1:122">
+    <row r="46" spans="1:126">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C46">
         <v>6.18775</v>
@@ -16260,13 +16764,25 @@
       <c r="DR46">
         <v>0.22375</v>
       </c>
+      <c r="DS46">
+        <v>7.403375</v>
+      </c>
+      <c r="DT46">
+        <v>1.675875</v>
+      </c>
+      <c r="DU46">
+        <v>0.336625</v>
+      </c>
+      <c r="DV46">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="47" spans="1:122">
+    <row r="47" spans="1:126">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AU47">
         <v>6.30975</v>
@@ -16496,13 +17012,25 @@
       <c r="DR47">
         <v>0.22375</v>
       </c>
+      <c r="DS47">
+        <v>7.403375</v>
+      </c>
+      <c r="DT47">
+        <v>1.675875</v>
+      </c>
+      <c r="DU47">
+        <v>0.336625</v>
+      </c>
+      <c r="DV47">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="48" spans="1:122">
+    <row r="48" spans="1:126">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C48">
         <v>6.18775</v>
@@ -16864,13 +17392,25 @@
       <c r="DR48">
         <v>0.22375</v>
       </c>
+      <c r="DS48">
+        <v>7.403375</v>
+      </c>
+      <c r="DT48">
+        <v>1.675875</v>
+      </c>
+      <c r="DU48">
+        <v>0.336625</v>
+      </c>
+      <c r="DV48">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="49" spans="1:122">
+    <row r="49" spans="1:126">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C49">
         <v>6.18775</v>
@@ -16969,12 +17509,12 @@
         <v>0.223875</v>
       </c>
     </row>
-    <row r="50" spans="1:122">
+    <row r="50" spans="1:126">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C50">
         <v>6.18775</v>
@@ -17073,12 +17613,12 @@
         <v>0.223875</v>
       </c>
     </row>
-    <row r="51" spans="1:122">
+    <row r="51" spans="1:126">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI51">
         <v>6.805875</v>
@@ -17344,13 +17884,25 @@
       <c r="DR51">
         <v>0.22375</v>
       </c>
+      <c r="DS51">
+        <v>7.403375</v>
+      </c>
+      <c r="DT51">
+        <v>1.675875</v>
+      </c>
+      <c r="DU51">
+        <v>0.336625</v>
+      </c>
+      <c r="DV51">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="52" spans="1:122">
+    <row r="52" spans="1:126">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI52">
         <v>6.805875</v>
@@ -17616,13 +18168,25 @@
       <c r="DR52">
         <v>0.22375</v>
       </c>
+      <c r="DS52">
+        <v>7.403375</v>
+      </c>
+      <c r="DT52">
+        <v>1.675875</v>
+      </c>
+      <c r="DU52">
+        <v>0.336625</v>
+      </c>
+      <c r="DV52">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="53" spans="1:122">
+    <row r="53" spans="1:126">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C53">
         <v>6.18775</v>
@@ -17984,13 +18548,25 @@
       <c r="DR53">
         <v>0.22375</v>
       </c>
+      <c r="DS53">
+        <v>7.403375</v>
+      </c>
+      <c r="DT53">
+        <v>1.675875</v>
+      </c>
+      <c r="DU53">
+        <v>0.336625</v>
+      </c>
+      <c r="DV53">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="54" spans="1:122">
+    <row r="54" spans="1:126">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C54">
         <v>6.18775</v>
@@ -18352,13 +18928,25 @@
       <c r="DR54">
         <v>0.22375</v>
       </c>
+      <c r="DS54">
+        <v>7.403375</v>
+      </c>
+      <c r="DT54">
+        <v>1.675875</v>
+      </c>
+      <c r="DU54">
+        <v>0.336625</v>
+      </c>
+      <c r="DV54">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="55" spans="1:122">
+    <row r="55" spans="1:126">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C55">
         <v>6.18775</v>
@@ -18720,13 +19308,25 @@
       <c r="DR55">
         <v>0.22375</v>
       </c>
+      <c r="DS55">
+        <v>7.403375</v>
+      </c>
+      <c r="DT55">
+        <v>1.675875</v>
+      </c>
+      <c r="DU55">
+        <v>0.336625</v>
+      </c>
+      <c r="DV55">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="56" spans="1:122">
+    <row r="56" spans="1:126">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C56">
         <v>6.18775</v>
@@ -19088,13 +19688,25 @@
       <c r="DR56">
         <v>0.22375</v>
       </c>
+      <c r="DS56">
+        <v>7.403375</v>
+      </c>
+      <c r="DT56">
+        <v>1.675875</v>
+      </c>
+      <c r="DU56">
+        <v>0.336625</v>
+      </c>
+      <c r="DV56">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="57" spans="1:122">
+    <row r="57" spans="1:126">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C57">
         <v>12.3755</v>
@@ -19456,13 +20068,25 @@
       <c r="DR57">
         <v>0.4475</v>
       </c>
+      <c r="DS57">
+        <v>14.80675</v>
+      </c>
+      <c r="DT57">
+        <v>3.35175</v>
+      </c>
+      <c r="DU57">
+        <v>0.67325</v>
+      </c>
+      <c r="DV57">
+        <v>0.4535</v>
+      </c>
     </row>
-    <row r="58" spans="1:122">
+    <row r="58" spans="1:126">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C58">
         <v>6.18775</v>
@@ -19824,13 +20448,25 @@
       <c r="DR58">
         <v>0.22375</v>
       </c>
+      <c r="DS58">
+        <v>7.403375</v>
+      </c>
+      <c r="DT58">
+        <v>1.675875</v>
+      </c>
+      <c r="DU58">
+        <v>0.336625</v>
+      </c>
+      <c r="DV58">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="59" spans="1:122">
+    <row r="59" spans="1:126">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C59">
         <v>6.18775</v>
@@ -20192,13 +20828,25 @@
       <c r="DR59">
         <v>0.22375</v>
       </c>
+      <c r="DS59">
+        <v>7.403375</v>
+      </c>
+      <c r="DT59">
+        <v>1.675875</v>
+      </c>
+      <c r="DU59">
+        <v>0.336625</v>
+      </c>
+      <c r="DV59">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="60" spans="1:122">
+    <row r="60" spans="1:126">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C60">
         <v>6.18775</v>
@@ -20560,13 +21208,25 @@
       <c r="DR60">
         <v>0.22375</v>
       </c>
+      <c r="DS60">
+        <v>7.403375</v>
+      </c>
+      <c r="DT60">
+        <v>1.675875</v>
+      </c>
+      <c r="DU60">
+        <v>0.336625</v>
+      </c>
+      <c r="DV60">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="61" spans="1:122">
+    <row r="61" spans="1:126">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C61">
         <v>6.18775</v>
@@ -20928,13 +21588,25 @@
       <c r="DR61">
         <v>0.22375</v>
       </c>
+      <c r="DS61">
+        <v>7.403375</v>
+      </c>
+      <c r="DT61">
+        <v>1.675875</v>
+      </c>
+      <c r="DU61">
+        <v>0.336625</v>
+      </c>
+      <c r="DV61">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="62" spans="1:122">
+    <row r="62" spans="1:126">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C62">
         <v>6.18775</v>
@@ -21224,13 +21896,25 @@
       <c r="DR62">
         <v>0.22375</v>
       </c>
+      <c r="DS62">
+        <v>7.403375</v>
+      </c>
+      <c r="DT62">
+        <v>1.675875</v>
+      </c>
+      <c r="DU62">
+        <v>0.336625</v>
+      </c>
+      <c r="DV62">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="63" spans="1:122">
+    <row r="63" spans="1:126">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C63">
         <v>6.18775</v>
@@ -21592,13 +22276,25 @@
       <c r="DR63">
         <v>0.22375</v>
       </c>
+      <c r="DS63">
+        <v>7.403375</v>
+      </c>
+      <c r="DT63">
+        <v>1.675875</v>
+      </c>
+      <c r="DU63">
+        <v>0.336625</v>
+      </c>
+      <c r="DV63">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="64" spans="1:122">
+    <row r="64" spans="1:126">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C64">
         <v>6.18775</v>
@@ -21960,13 +22656,25 @@
       <c r="DR64">
         <v>0.22375</v>
       </c>
+      <c r="DS64">
+        <v>7.403375</v>
+      </c>
+      <c r="DT64">
+        <v>1.675875</v>
+      </c>
+      <c r="DU64">
+        <v>0.336625</v>
+      </c>
+      <c r="DV64">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="65" spans="1:122">
+    <row r="65" spans="1:126">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C65">
         <v>6.18775</v>
@@ -22328,13 +23036,25 @@
       <c r="DR65">
         <v>0.22375</v>
       </c>
+      <c r="DS65">
+        <v>7.403375</v>
+      </c>
+      <c r="DT65">
+        <v>1.675875</v>
+      </c>
+      <c r="DU65">
+        <v>0.336625</v>
+      </c>
+      <c r="DV65">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="66" spans="1:122">
+    <row r="66" spans="1:126">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C66">
         <v>6.18775</v>
@@ -22696,13 +23416,25 @@
       <c r="DR66">
         <v>0.22375</v>
       </c>
+      <c r="DS66">
+        <v>7.403375</v>
+      </c>
+      <c r="DT66">
+        <v>1.675875</v>
+      </c>
+      <c r="DU66">
+        <v>0.336625</v>
+      </c>
+      <c r="DV66">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="67" spans="1:122">
+    <row r="67" spans="1:126">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C67">
         <v>6.18775</v>
@@ -23064,13 +23796,25 @@
       <c r="DR67">
         <v>0.22375</v>
       </c>
+      <c r="DS67">
+        <v>7.403375</v>
+      </c>
+      <c r="DT67">
+        <v>1.675875</v>
+      </c>
+      <c r="DU67">
+        <v>0.336625</v>
+      </c>
+      <c r="DV67">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="68" spans="1:122">
+    <row r="68" spans="1:126">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C68">
         <v>6.18775</v>
@@ -23432,13 +24176,25 @@
       <c r="DR68">
         <v>0.22375</v>
       </c>
+      <c r="DS68">
+        <v>7.403375</v>
+      </c>
+      <c r="DT68">
+        <v>1.675875</v>
+      </c>
+      <c r="DU68">
+        <v>0.336625</v>
+      </c>
+      <c r="DV68">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="69" spans="1:122">
+    <row r="69" spans="1:126">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C69">
         <v>6.18775</v>
@@ -23800,13 +24556,25 @@
       <c r="DR69">
         <v>0.22375</v>
       </c>
+      <c r="DS69">
+        <v>7.403375</v>
+      </c>
+      <c r="DT69">
+        <v>1.675875</v>
+      </c>
+      <c r="DU69">
+        <v>0.336625</v>
+      </c>
+      <c r="DV69">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="70" spans="1:122">
+    <row r="70" spans="1:126">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AI70">
         <v>6.805875</v>
@@ -24072,13 +24840,25 @@
       <c r="DR70">
         <v>0.22375</v>
       </c>
+      <c r="DS70">
+        <v>7.403375</v>
+      </c>
+      <c r="DT70">
+        <v>1.675875</v>
+      </c>
+      <c r="DU70">
+        <v>0.336625</v>
+      </c>
+      <c r="DV70">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="71" spans="1:122">
+    <row r="71" spans="1:126">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AI71">
         <v>6.805875</v>
@@ -24344,13 +25124,25 @@
       <c r="DR71">
         <v>0.22375</v>
       </c>
+      <c r="DS71">
+        <v>7.403375</v>
+      </c>
+      <c r="DT71">
+        <v>1.675875</v>
+      </c>
+      <c r="DU71">
+        <v>0.336625</v>
+      </c>
+      <c r="DV71">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="72" spans="1:122">
+    <row r="72" spans="1:126">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C72">
         <v>6.18775</v>
@@ -24449,12 +25241,12 @@
         <v>0.223875</v>
       </c>
     </row>
-    <row r="73" spans="1:122">
+    <row r="73" spans="1:126">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C73">
         <v>6.18775</v>
@@ -24553,12 +25345,12 @@
         <v>0.223875</v>
       </c>
     </row>
-    <row r="74" spans="1:122">
+    <row r="74" spans="1:126">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C74">
         <v>6.18775</v>
@@ -24920,13 +25712,25 @@
       <c r="DR74">
         <v>0.22375</v>
       </c>
+      <c r="DS74">
+        <v>7.403375</v>
+      </c>
+      <c r="DT74">
+        <v>1.675875</v>
+      </c>
+      <c r="DU74">
+        <v>0.336625</v>
+      </c>
+      <c r="DV74">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="75" spans="1:122">
+    <row r="75" spans="1:126">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C75">
         <v>6.18775</v>
@@ -25097,12 +25901,12 @@
         <v>0.2105</v>
       </c>
     </row>
-    <row r="76" spans="1:122">
+    <row r="76" spans="1:126">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BG76">
         <v>6.32625</v>
@@ -25296,13 +26100,25 @@
       <c r="DR76">
         <v>0.22375</v>
       </c>
+      <c r="DS76">
+        <v>7.403375</v>
+      </c>
+      <c r="DT76">
+        <v>1.675875</v>
+      </c>
+      <c r="DU76">
+        <v>0.336625</v>
+      </c>
+      <c r="DV76">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="77" spans="1:122">
+    <row r="77" spans="1:126">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AI77">
         <v>6.805875</v>
@@ -25568,13 +26384,25 @@
       <c r="DR77">
         <v>0.22375</v>
       </c>
+      <c r="DS77">
+        <v>7.403375</v>
+      </c>
+      <c r="DT77">
+        <v>1.675875</v>
+      </c>
+      <c r="DU77">
+        <v>0.336625</v>
+      </c>
+      <c r="DV77">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="78" spans="1:122">
+    <row r="78" spans="1:126">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C78">
         <v>6.18775</v>
@@ -25673,12 +26501,12 @@
         <v>0.223875</v>
       </c>
     </row>
-    <row r="79" spans="1:122">
+    <row r="79" spans="1:126">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C79">
         <v>6.18775</v>
@@ -26040,13 +26868,25 @@
       <c r="DR79">
         <v>0.22375</v>
       </c>
+      <c r="DS79">
+        <v>7.403375</v>
+      </c>
+      <c r="DT79">
+        <v>1.675875</v>
+      </c>
+      <c r="DU79">
+        <v>0.336625</v>
+      </c>
+      <c r="DV79">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="80" spans="1:122">
+    <row r="80" spans="1:126">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C80">
         <v>6.18775</v>
@@ -26408,13 +27248,25 @@
       <c r="DR80">
         <v>0.22375</v>
       </c>
+      <c r="DS80">
+        <v>7.403375</v>
+      </c>
+      <c r="DT80">
+        <v>1.675875</v>
+      </c>
+      <c r="DU80">
+        <v>0.336625</v>
+      </c>
+      <c r="DV80">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="81" spans="1:122">
+    <row r="81" spans="1:126">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C81">
         <v>6.18775</v>
@@ -26776,13 +27628,25 @@
       <c r="DR81">
         <v>0.22375</v>
       </c>
+      <c r="DS81">
+        <v>7.403375</v>
+      </c>
+      <c r="DT81">
+        <v>1.675875</v>
+      </c>
+      <c r="DU81">
+        <v>0.336625</v>
+      </c>
+      <c r="DV81">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="82" spans="1:122">
+    <row r="82" spans="1:126">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C82">
         <v>6.18775</v>
@@ -27144,13 +28008,25 @@
       <c r="DR82">
         <v>0.22375</v>
       </c>
+      <c r="DS82">
+        <v>7.403375</v>
+      </c>
+      <c r="DT82">
+        <v>1.675875</v>
+      </c>
+      <c r="DU82">
+        <v>0.336625</v>
+      </c>
+      <c r="DV82">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="83" spans="1:122">
+    <row r="83" spans="1:126">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C83">
         <v>6.18775</v>
@@ -27512,13 +28388,25 @@
       <c r="DR83">
         <v>0.22375</v>
       </c>
+      <c r="DS83">
+        <v>7.403375</v>
+      </c>
+      <c r="DT83">
+        <v>1.675875</v>
+      </c>
+      <c r="DU83">
+        <v>0.336625</v>
+      </c>
+      <c r="DV83">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="84" spans="1:122">
+    <row r="84" spans="1:126">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C84">
         <v>6.18775</v>
@@ -27880,13 +28768,25 @@
       <c r="DR84">
         <v>0.22375</v>
       </c>
+      <c r="DS84">
+        <v>7.403375</v>
+      </c>
+      <c r="DT84">
+        <v>1.675875</v>
+      </c>
+      <c r="DU84">
+        <v>0.336625</v>
+      </c>
+      <c r="DV84">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="85" spans="1:122">
+    <row r="85" spans="1:126">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C85">
         <v>6.18775</v>
@@ -28248,13 +29148,25 @@
       <c r="DR85">
         <v>0.22375</v>
       </c>
+      <c r="DS85">
+        <v>7.403375</v>
+      </c>
+      <c r="DT85">
+        <v>1.675875</v>
+      </c>
+      <c r="DU85">
+        <v>0.336625</v>
+      </c>
+      <c r="DV85">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="86" spans="1:122">
+    <row r="86" spans="1:126">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C86">
         <v>6.18775</v>
@@ -28616,13 +29528,25 @@
       <c r="DR86">
         <v>0.22375</v>
       </c>
+      <c r="DS86">
+        <v>7.403375</v>
+      </c>
+      <c r="DT86">
+        <v>1.675875</v>
+      </c>
+      <c r="DU86">
+        <v>0.336625</v>
+      </c>
+      <c r="DV86">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="87" spans="1:122">
+    <row r="87" spans="1:126">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C87">
         <v>6.18775</v>
@@ -28912,13 +29836,25 @@
       <c r="DR87">
         <v>0.22375</v>
       </c>
+      <c r="DS87">
+        <v>7.403375</v>
+      </c>
+      <c r="DT87">
+        <v>1.675875</v>
+      </c>
+      <c r="DU87">
+        <v>0.336625</v>
+      </c>
+      <c r="DV87">
+        <v>0.22675</v>
+      </c>
     </row>
-    <row r="88" spans="1:122">
+    <row r="88" spans="1:126">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C88">
         <v>6.18775</v>
@@ -29279,6 +30215,18 @@
       </c>
       <c r="DR88">
         <v>0.22375</v>
+      </c>
+      <c r="DS88">
+        <v>7.403375</v>
+      </c>
+      <c r="DT88">
+        <v>1.675875</v>
+      </c>
+      <c r="DU88">
+        <v>0.336625</v>
+      </c>
+      <c r="DV88">
+        <v>0.22675</v>
       </c>
     </row>
   </sheetData>
